--- a/public/user12/kiaanak1/kiaanak1.xlsx
+++ b/public/user12/kiaanak1/kiaanak1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>REKAPITULASI LAPORAN PWS-KIA (ANAK)</t>
   </si>
@@ -37,7 +37,7 @@
     <t>PROPINSI         :  NUSA TENGGARA BARAT</t>
   </si>
   <si>
-    <t>BULAN              :  MARET 2015</t>
+    <t>BULAN              :</t>
   </si>
   <si>
     <t>NO</t>
@@ -97,55 +97,7 @@
     <t>P</t>
   </si>
   <si>
-    <t>Rebile</t>
-  </si>
-  <si>
-    <t>Perendik</t>
-  </si>
-  <si>
-    <t>Tanak Awu I</t>
-  </si>
-  <si>
-    <t>Tanak Awu II</t>
-  </si>
-  <si>
-    <t>Selawang Timuq</t>
-  </si>
-  <si>
-    <t>Selawang Bat</t>
-  </si>
-  <si>
-    <t>Reak I</t>
-  </si>
-  <si>
-    <t>Reak II</t>
-  </si>
-  <si>
-    <t>Singe</t>
-  </si>
-  <si>
-    <t>Gantang Lauk</t>
-  </si>
-  <si>
-    <t>Gantang Daye</t>
-  </si>
-  <si>
-    <t>Gantang Bat</t>
-  </si>
-  <si>
-    <t>Tatak</t>
-  </si>
-  <si>
-    <t>Tanak Awu Bat</t>
-  </si>
-  <si>
-    <t>Tanpok</t>
-  </si>
-  <si>
-    <t>Jambek I</t>
-  </si>
-  <si>
-    <t>Jambek II</t>
+    <t> </t>
   </si>
   <si>
     <t>,                            2015</t>
@@ -209,6 +161,7 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -514,33 +467,35 @@
   </sheetPr>
   <dimension ref="A3:Y65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U50" activeCellId="0" sqref="U50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.72222222222222"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.5851851851852"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.17407407407407"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.01481481481481"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.76296296296296"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.93703703703704"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.56666666666667"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="6.07407407407407"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="9.01481481481481"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.15185185185185"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="5.97777777777778"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="6.37037037037037"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="6.27037037037037"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="5.97777777777778"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="6.27037037037037"/>
-    <col collapsed="false" hidden="false" max="22" min="20" style="0" width="9.01481481481481"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="6.27037037037037"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="7.25185185185185"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="6.76296296296296"/>
-    <col collapsed="false" hidden="false" max="29" min="26" style="0" width="9.01481481481481"/>
-    <col collapsed="false" hidden="false" max="33" min="31" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.56666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.25185185185185"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.23333333333333"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.15185185185185"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="6.37037037037037"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.44814814814815"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.27037037037037"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="6.95925925925926"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="6.76296296296296"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="6.27037037037037"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="6.76296296296296"/>
+    <col collapsed="false" hidden="false" max="22" min="20" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="6.76296296296296"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="7.54444444444444"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="7.25185185185185"/>
+    <col collapsed="false" hidden="false" max="29" min="26" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="33" min="31" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="34" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -976,9 +931,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="11"/>
-      <c r="B14" s="12" t="s">
-        <v>25</v>
-      </c>
+      <c r="B14" s="12"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
       <c r="E14" s="13"/>
@@ -1029,9 +982,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="11"/>
-      <c r="B15" s="12" t="s">
-        <v>26</v>
-      </c>
+      <c r="B15" s="12"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
       <c r="E15" s="13"/>
@@ -1080,11 +1031,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="11"/>
-      <c r="B16" s="12" t="s">
-        <v>27</v>
-      </c>
+      <c r="B16" s="12"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
       <c r="E16" s="13"/>
@@ -1133,11 +1082,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="11"/>
-      <c r="B17" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="B17" s="12"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
       <c r="E17" s="13"/>
@@ -1186,11 +1133,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11"/>
-      <c r="B18" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="B18" s="12"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
       <c r="E18" s="13"/>
@@ -1239,11 +1184,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="11"/>
-      <c r="B19" s="12" t="s">
-        <v>30</v>
-      </c>
+      <c r="B19" s="12"/>
       <c r="C19" s="13"/>
       <c r="D19" s="14"/>
       <c r="E19" s="13"/>
@@ -1292,11 +1235,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="11"/>
-      <c r="B20" s="12" t="s">
-        <v>31</v>
-      </c>
+      <c r="B20" s="12"/>
       <c r="C20" s="13"/>
       <c r="D20" s="14"/>
       <c r="E20" s="13"/>
@@ -1345,11 +1286,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="11"/>
-      <c r="B21" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="B21" s="12"/>
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
       <c r="E21" s="13"/>
@@ -1398,11 +1337,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="11"/>
-      <c r="B22" s="12" t="s">
-        <v>33</v>
-      </c>
+      <c r="B22" s="12"/>
       <c r="C22" s="13"/>
       <c r="D22" s="14"/>
       <c r="E22" s="13"/>
@@ -1451,11 +1388,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="11"/>
-      <c r="B23" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="B23" s="12"/>
       <c r="C23" s="13"/>
       <c r="D23" s="14"/>
       <c r="E23" s="13"/>
@@ -1504,11 +1439,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="11"/>
-      <c r="B24" s="12" t="s">
-        <v>35</v>
-      </c>
+      <c r="B24" s="12"/>
       <c r="C24" s="13"/>
       <c r="D24" s="14"/>
       <c r="E24" s="13"/>
@@ -1557,11 +1490,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="11"/>
-      <c r="B25" s="12" t="s">
-        <v>36</v>
-      </c>
+      <c r="B25" s="12"/>
       <c r="C25" s="13"/>
       <c r="D25" s="14"/>
       <c r="E25" s="13"/>
@@ -1610,11 +1541,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="11"/>
-      <c r="B26" s="12" t="s">
-        <v>37</v>
-      </c>
+      <c r="B26" s="12"/>
       <c r="C26" s="13"/>
       <c r="D26" s="14"/>
       <c r="E26" s="13"/>
@@ -1663,11 +1592,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="11"/>
-      <c r="B27" s="12" t="s">
-        <v>38</v>
-      </c>
+      <c r="B27" s="12"/>
       <c r="C27" s="13"/>
       <c r="D27" s="14"/>
       <c r="E27" s="13"/>
@@ -1716,11 +1643,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="11"/>
-      <c r="B28" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="B28" s="12"/>
       <c r="C28" s="13"/>
       <c r="D28" s="14"/>
       <c r="E28" s="13"/>
@@ -1769,11 +1694,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="11"/>
-      <c r="B29" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="B29" s="12"/>
       <c r="C29" s="13"/>
       <c r="D29" s="14"/>
       <c r="E29" s="13"/>
@@ -1822,11 +1745,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="11"/>
-      <c r="B30" s="12" t="s">
-        <v>41</v>
-      </c>
+      <c r="B30" s="12"/>
       <c r="C30" s="13"/>
       <c r="D30" s="14"/>
       <c r="E30" s="13"/>
@@ -1875,7 +1796,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="C31" s="13"/>
@@ -1926,7 +1847,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
       <c r="C32" s="13"/>
@@ -1977,7 +1898,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="C33" s="13"/>
@@ -2028,9 +1949,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="11"/>
-      <c r="B34" s="16"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
       <c r="E34" s="13"/>
@@ -2080,44 +2001,27 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18" t="n">
-        <f aca="false">SUM(C14:C34)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="19" t="n">
-        <f aca="false">SUM(D14:D34)</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="18" t="n">
-        <f aca="false">SUM(E14:E34)</f>
-        <v>0</v>
-      </c>
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="13"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18" t="n">
-        <f aca="false">SUM(J14:J34)</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="18" t="n">
-        <f aca="false">SUM(K14:K34)</f>
-        <v>0</v>
-      </c>
-      <c r="L35" s="18" t="n">
-        <f aca="false">SUM(L14:L34)</f>
-        <v>0</v>
-      </c>
-      <c r="M35" s="18" t="n">
-        <f aca="false">SUM(M14:M34)</f>
-        <v>0</v>
-      </c>
-      <c r="N35" s="18" t="n">
-        <f aca="false">SUM(N14:N34)</f>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11" t="n">
+        <f aca="false">I35+H35</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11" t="n">
+        <f aca="false">L35+K35</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="11" t="n">
+        <f aca="false">M35+J35</f>
         <v>0</v>
       </c>
       <c r="O35" s="15" t="e">
@@ -2126,26 +2030,20 @@
       </c>
       <c r="P35" s="15"/>
       <c r="Q35" s="15"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="18" t="n">
-        <f aca="false">SUM(T14:T34)</f>
-        <v>0</v>
-      </c>
-      <c r="U35" s="18" t="n">
-        <f aca="false">SUM(U14:U34)</f>
-        <v>0</v>
-      </c>
-      <c r="V35" s="18" t="n">
-        <f aca="false">SUM(V14:V34)</f>
-        <v>0</v>
-      </c>
-      <c r="W35" s="18" t="n">
-        <f aca="false">SUM(W14:W34)</f>
-        <v>0</v>
-      </c>
-      <c r="X35" s="18" t="n">
-        <f aca="false">SUM(X14:X34)</f>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14" t="n">
+        <f aca="false">S35+R35</f>
+        <v>0</v>
+      </c>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11" t="n">
+        <f aca="false">V35+U35</f>
+        <v>0</v>
+      </c>
+      <c r="X35" s="11" t="n">
+        <f aca="false">W35+T35</f>
         <v>0</v>
       </c>
       <c r="Y35" s="15" t="e">
@@ -2153,73 +2051,1814 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="U37" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="V37" s="21"/>
-    </row>
-    <row r="38" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="U38" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="V38" s="21"/>
-    </row>
-    <row r="39" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="U39" s="20"/>
-      <c r="V39" s="21"/>
-    </row>
-    <row r="40" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="U40" s="20"/>
-      <c r="V40" s="21"/>
-    </row>
-    <row r="41" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="U41" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="V41" s="21"/>
-      <c r="W41" s="2"/>
-    </row>
-    <row r="42" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="U42" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="V42" s="21"/>
-    </row>
-    <row r="1048259" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048260" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048261" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048262" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048263" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048264" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048265" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048266" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048267" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048268" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048269" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048270" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048271" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048272" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048273" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048274" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048275" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048276" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048277" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048278" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048279" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048280" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048281" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048282" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048283" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048284" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048285" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048286" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048287" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048288" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048289" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048290" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048291" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048292" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11" t="n">
+        <f aca="false">I36+H36</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11" t="n">
+        <f aca="false">L36+K36</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="11" t="n">
+        <f aca="false">M36+J36</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="15" t="e">
+        <f aca="false">N36/C36*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14" t="n">
+        <f aca="false">S36+R36</f>
+        <v>0</v>
+      </c>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11" t="n">
+        <f aca="false">V36+U36</f>
+        <v>0</v>
+      </c>
+      <c r="X36" s="11" t="n">
+        <f aca="false">W36+T36</f>
+        <v>0</v>
+      </c>
+      <c r="Y36" s="15" t="e">
+        <f aca="false">X36/C36*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11" t="n">
+        <f aca="false">I37+H37</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11" t="n">
+        <f aca="false">L37+K37</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="11" t="n">
+        <f aca="false">M37+J37</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="15" t="e">
+        <f aca="false">N37/C37*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14" t="n">
+        <f aca="false">S37+R37</f>
+        <v>0</v>
+      </c>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11" t="n">
+        <f aca="false">V37+U37</f>
+        <v>0</v>
+      </c>
+      <c r="X37" s="11" t="n">
+        <f aca="false">W37+T37</f>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="15" t="e">
+        <f aca="false">X37/C37*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11" t="n">
+        <f aca="false">I38+H38</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11" t="n">
+        <f aca="false">L38+K38</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="11" t="n">
+        <f aca="false">M38+J38</f>
+        <v>0</v>
+      </c>
+      <c r="O38" s="15" t="e">
+        <f aca="false">N38/C38*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14" t="n">
+        <f aca="false">S38+R38</f>
+        <v>0</v>
+      </c>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11" t="n">
+        <f aca="false">V38+U38</f>
+        <v>0</v>
+      </c>
+      <c r="X38" s="11" t="n">
+        <f aca="false">W38+T38</f>
+        <v>0</v>
+      </c>
+      <c r="Y38" s="15" t="e">
+        <f aca="false">X38/C38*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11" t="n">
+        <f aca="false">I39+H39</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11" t="n">
+        <f aca="false">L39+K39</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="11" t="n">
+        <f aca="false">M39+J39</f>
+        <v>0</v>
+      </c>
+      <c r="O39" s="15" t="e">
+        <f aca="false">N39/C39*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14" t="n">
+        <f aca="false">S39+R39</f>
+        <v>0</v>
+      </c>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11" t="n">
+        <f aca="false">V39+U39</f>
+        <v>0</v>
+      </c>
+      <c r="X39" s="11" t="n">
+        <f aca="false">W39+T39</f>
+        <v>0</v>
+      </c>
+      <c r="Y39" s="15" t="e">
+        <f aca="false">X39/C39*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11" t="n">
+        <f aca="false">I40+H40</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11" t="n">
+        <f aca="false">L40+K40</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="11" t="n">
+        <f aca="false">M40+J40</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="15" t="e">
+        <f aca="false">N40/C40*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14" t="n">
+        <f aca="false">S40+R40</f>
+        <v>0</v>
+      </c>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11" t="n">
+        <f aca="false">V40+U40</f>
+        <v>0</v>
+      </c>
+      <c r="X40" s="11" t="n">
+        <f aca="false">W40+T40</f>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="15" t="e">
+        <f aca="false">X40/C40*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="11"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11" t="n">
+        <f aca="false">I41+H41</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11" t="n">
+        <f aca="false">L41+K41</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="11" t="n">
+        <f aca="false">M41+J41</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="15" t="e">
+        <f aca="false">N41/C41*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14" t="n">
+        <f aca="false">S41+R41</f>
+        <v>0</v>
+      </c>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11" t="n">
+        <f aca="false">V41+U41</f>
+        <v>0</v>
+      </c>
+      <c r="X41" s="11" t="n">
+        <f aca="false">W41+T41</f>
+        <v>0</v>
+      </c>
+      <c r="Y41" s="15" t="e">
+        <f aca="false">X41/C41*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11" t="n">
+        <f aca="false">I42+H42</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11" t="n">
+        <f aca="false">L42+K42</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="11" t="n">
+        <f aca="false">M42+J42</f>
+        <v>0</v>
+      </c>
+      <c r="O42" s="15" t="e">
+        <f aca="false">N42/C42*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14" t="n">
+        <f aca="false">S42+R42</f>
+        <v>0</v>
+      </c>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11" t="n">
+        <f aca="false">V42+U42</f>
+        <v>0</v>
+      </c>
+      <c r="X42" s="11" t="n">
+        <f aca="false">W42+T42</f>
+        <v>0</v>
+      </c>
+      <c r="Y42" s="15" t="e">
+        <f aca="false">X42/C42*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11" t="n">
+        <f aca="false">I43+H43</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11" t="n">
+        <f aca="false">L43+K43</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="11" t="n">
+        <f aca="false">M43+J43</f>
+        <v>0</v>
+      </c>
+      <c r="O43" s="15" t="e">
+        <f aca="false">N43/C43*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14" t="n">
+        <f aca="false">S43+R43</f>
+        <v>0</v>
+      </c>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11" t="n">
+        <f aca="false">V43+U43</f>
+        <v>0</v>
+      </c>
+      <c r="X43" s="11" t="n">
+        <f aca="false">W43+T43</f>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="15" t="e">
+        <f aca="false">X43/C43*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="11"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11" t="n">
+        <f aca="false">I44+H44</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11" t="n">
+        <f aca="false">L44+K44</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="11" t="n">
+        <f aca="false">M44+J44</f>
+        <v>0</v>
+      </c>
+      <c r="O44" s="15" t="e">
+        <f aca="false">N44/C44*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14" t="n">
+        <f aca="false">S44+R44</f>
+        <v>0</v>
+      </c>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11" t="n">
+        <f aca="false">V44+U44</f>
+        <v>0</v>
+      </c>
+      <c r="X44" s="11" t="n">
+        <f aca="false">W44+T44</f>
+        <v>0</v>
+      </c>
+      <c r="Y44" s="15" t="e">
+        <f aca="false">X44/C44*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="11"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11" t="n">
+        <f aca="false">I45+H45</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11" t="n">
+        <f aca="false">L45+K45</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="11" t="n">
+        <f aca="false">M45+J45</f>
+        <v>0</v>
+      </c>
+      <c r="O45" s="15" t="e">
+        <f aca="false">N45/C45*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14" t="n">
+        <f aca="false">S45+R45</f>
+        <v>0</v>
+      </c>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11" t="n">
+        <f aca="false">V45+U45</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="11" t="n">
+        <f aca="false">W45+T45</f>
+        <v>0</v>
+      </c>
+      <c r="Y45" s="15" t="e">
+        <f aca="false">X45/C45*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11" t="n">
+        <f aca="false">I46+H46</f>
+        <v>0</v>
+      </c>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11" t="n">
+        <f aca="false">L46+K46</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="11" t="n">
+        <f aca="false">M46+J46</f>
+        <v>0</v>
+      </c>
+      <c r="O46" s="15" t="e">
+        <f aca="false">N46/C46*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14" t="n">
+        <f aca="false">S46+R46</f>
+        <v>0</v>
+      </c>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="11" t="n">
+        <f aca="false">V46+U46</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="11" t="n">
+        <f aca="false">W46+T46</f>
+        <v>0</v>
+      </c>
+      <c r="Y46" s="15" t="e">
+        <f aca="false">X46/C46*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="11"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11" t="n">
+        <f aca="false">I47+H47</f>
+        <v>0</v>
+      </c>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11" t="n">
+        <f aca="false">L47+K47</f>
+        <v>0</v>
+      </c>
+      <c r="N47" s="11" t="n">
+        <f aca="false">M47+J47</f>
+        <v>0</v>
+      </c>
+      <c r="O47" s="15" t="e">
+        <f aca="false">N47/C47*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14" t="n">
+        <f aca="false">S47+R47</f>
+        <v>0</v>
+      </c>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11" t="n">
+        <f aca="false">V47+U47</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="11" t="n">
+        <f aca="false">W47+T47</f>
+        <v>0</v>
+      </c>
+      <c r="Y47" s="15" t="e">
+        <f aca="false">X47/C47*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="11"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11" t="n">
+        <f aca="false">I48+H48</f>
+        <v>0</v>
+      </c>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11" t="n">
+        <f aca="false">L48+K48</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="11" t="n">
+        <f aca="false">M48+J48</f>
+        <v>0</v>
+      </c>
+      <c r="O48" s="15" t="e">
+        <f aca="false">N48/C48*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14" t="n">
+        <f aca="false">S48+R48</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11" t="n">
+        <f aca="false">V48+U48</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="11" t="n">
+        <f aca="false">W48+T48</f>
+        <v>0</v>
+      </c>
+      <c r="Y48" s="15" t="e">
+        <f aca="false">X48/C48*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="11"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11" t="n">
+        <f aca="false">I49+H49</f>
+        <v>0</v>
+      </c>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11" t="n">
+        <f aca="false">L49+K49</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="11" t="n">
+        <f aca="false">M49+J49</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="15" t="e">
+        <f aca="false">N49/C49*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14" t="n">
+        <f aca="false">S49+R49</f>
+        <v>0</v>
+      </c>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11" t="n">
+        <f aca="false">V49+U49</f>
+        <v>0</v>
+      </c>
+      <c r="X49" s="11" t="n">
+        <f aca="false">W49+T49</f>
+        <v>0</v>
+      </c>
+      <c r="Y49" s="15" t="e">
+        <f aca="false">X49/C49*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="11"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11" t="n">
+        <f aca="false">I50+H50</f>
+        <v>0</v>
+      </c>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11" t="n">
+        <f aca="false">L50+K50</f>
+        <v>0</v>
+      </c>
+      <c r="N50" s="11" t="n">
+        <f aca="false">M50+J50</f>
+        <v>0</v>
+      </c>
+      <c r="O50" s="15" t="e">
+        <f aca="false">N50/C50*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14" t="n">
+        <f aca="false">S50+R50</f>
+        <v>0</v>
+      </c>
+      <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="11" t="n">
+        <f aca="false">V50+U50</f>
+        <v>0</v>
+      </c>
+      <c r="X50" s="11" t="n">
+        <f aca="false">W50+T50</f>
+        <v>0</v>
+      </c>
+      <c r="Y50" s="15" t="e">
+        <f aca="false">X50/C50*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="11"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11" t="n">
+        <f aca="false">I51+H51</f>
+        <v>0</v>
+      </c>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11" t="n">
+        <f aca="false">L51+K51</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="11" t="n">
+        <f aca="false">M51+J51</f>
+        <v>0</v>
+      </c>
+      <c r="O51" s="15" t="e">
+        <f aca="false">N51/C51*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="14" t="n">
+        <f aca="false">S51+R51</f>
+        <v>0</v>
+      </c>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="11" t="n">
+        <f aca="false">V51+U51</f>
+        <v>0</v>
+      </c>
+      <c r="X51" s="11" t="n">
+        <f aca="false">W51+T51</f>
+        <v>0</v>
+      </c>
+      <c r="Y51" s="15" t="e">
+        <f aca="false">X51/C51*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="11"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11" t="n">
+        <f aca="false">I52+H52</f>
+        <v>0</v>
+      </c>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11" t="n">
+        <f aca="false">L52+K52</f>
+        <v>0</v>
+      </c>
+      <c r="N52" s="11" t="n">
+        <f aca="false">M52+J52</f>
+        <v>0</v>
+      </c>
+      <c r="O52" s="15" t="e">
+        <f aca="false">N52/C52*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="14"/>
+      <c r="T52" s="14" t="n">
+        <f aca="false">S52+R52</f>
+        <v>0</v>
+      </c>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
+      <c r="W52" s="11" t="n">
+        <f aca="false">V52+U52</f>
+        <v>0</v>
+      </c>
+      <c r="X52" s="11" t="n">
+        <f aca="false">W52+T52</f>
+        <v>0</v>
+      </c>
+      <c r="Y52" s="15" t="e">
+        <f aca="false">X52/C52*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="11"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11" t="n">
+        <f aca="false">I53+H53</f>
+        <v>0</v>
+      </c>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11" t="n">
+        <f aca="false">L53+K53</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="11" t="n">
+        <f aca="false">M53+J53</f>
+        <v>0</v>
+      </c>
+      <c r="O53" s="15" t="e">
+        <f aca="false">N53/C53*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="15"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="14" t="n">
+        <f aca="false">S53+R53</f>
+        <v>0</v>
+      </c>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="11" t="n">
+        <f aca="false">V53+U53</f>
+        <v>0</v>
+      </c>
+      <c r="X53" s="11" t="n">
+        <f aca="false">W53+T53</f>
+        <v>0</v>
+      </c>
+      <c r="Y53" s="15" t="e">
+        <f aca="false">X53/C53*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="11"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11" t="n">
+        <f aca="false">I54+H54</f>
+        <v>0</v>
+      </c>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11" t="n">
+        <f aca="false">L54+K54</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="11" t="n">
+        <f aca="false">M54+J54</f>
+        <v>0</v>
+      </c>
+      <c r="O54" s="15" t="e">
+        <f aca="false">N54/C54*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="14"/>
+      <c r="T54" s="14" t="n">
+        <f aca="false">S54+R54</f>
+        <v>0</v>
+      </c>
+      <c r="U54" s="11"/>
+      <c r="V54" s="11"/>
+      <c r="W54" s="11" t="n">
+        <f aca="false">V54+U54</f>
+        <v>0</v>
+      </c>
+      <c r="X54" s="11" t="n">
+        <f aca="false">W54+T54</f>
+        <v>0</v>
+      </c>
+      <c r="Y54" s="15" t="e">
+        <f aca="false">X54/C54*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="11"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11" t="n">
+        <f aca="false">I55+H55</f>
+        <v>0</v>
+      </c>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11" t="n">
+        <f aca="false">L55+K55</f>
+        <v>0</v>
+      </c>
+      <c r="N55" s="11" t="n">
+        <f aca="false">M55+J55</f>
+        <v>0</v>
+      </c>
+      <c r="O55" s="15" t="e">
+        <f aca="false">N55/C55*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="15"/>
+      <c r="R55" s="14"/>
+      <c r="S55" s="14"/>
+      <c r="T55" s="14" t="n">
+        <f aca="false">S55+R55</f>
+        <v>0</v>
+      </c>
+      <c r="U55" s="11"/>
+      <c r="V55" s="11"/>
+      <c r="W55" s="11" t="n">
+        <f aca="false">V55+U55</f>
+        <v>0</v>
+      </c>
+      <c r="X55" s="11" t="n">
+        <f aca="false">W55+T55</f>
+        <v>0</v>
+      </c>
+      <c r="Y55" s="15" t="e">
+        <f aca="false">X55/C55*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="11"/>
+      <c r="B56" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11" t="n">
+        <f aca="false">I56+H56</f>
+        <v>0</v>
+      </c>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11" t="n">
+        <f aca="false">L56+K56</f>
+        <v>0</v>
+      </c>
+      <c r="N56" s="11" t="n">
+        <f aca="false">M56+J56</f>
+        <v>0</v>
+      </c>
+      <c r="O56" s="15" t="e">
+        <f aca="false">N56/C56*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="14"/>
+      <c r="S56" s="14"/>
+      <c r="T56" s="14" t="n">
+        <f aca="false">S56+R56</f>
+        <v>0</v>
+      </c>
+      <c r="U56" s="11"/>
+      <c r="V56" s="11"/>
+      <c r="W56" s="11" t="n">
+        <f aca="false">V56+U56</f>
+        <v>0</v>
+      </c>
+      <c r="X56" s="11" t="n">
+        <f aca="false">W56+T56</f>
+        <v>0</v>
+      </c>
+      <c r="Y56" s="15" t="e">
+        <f aca="false">X56/C56*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="11"/>
+      <c r="B57" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="13"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11" t="n">
+        <f aca="false">I57+H57</f>
+        <v>0</v>
+      </c>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11" t="n">
+        <f aca="false">L57+K57</f>
+        <v>0</v>
+      </c>
+      <c r="N57" s="11" t="n">
+        <f aca="false">M57+J57</f>
+        <v>0</v>
+      </c>
+      <c r="O57" s="15" t="e">
+        <f aca="false">N57/C57*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="15"/>
+      <c r="R57" s="14"/>
+      <c r="S57" s="14"/>
+      <c r="T57" s="14" t="n">
+        <f aca="false">S57+R57</f>
+        <v>0</v>
+      </c>
+      <c r="U57" s="11"/>
+      <c r="V57" s="11"/>
+      <c r="W57" s="11" t="n">
+        <f aca="false">V57+U57</f>
+        <v>0</v>
+      </c>
+      <c r="X57" s="11" t="n">
+        <f aca="false">W57+T57</f>
+        <v>0</v>
+      </c>
+      <c r="Y57" s="15" t="e">
+        <f aca="false">X57/C57*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="11"/>
+      <c r="B58" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11" t="n">
+        <f aca="false">I58+H58</f>
+        <v>0</v>
+      </c>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11" t="n">
+        <f aca="false">L58+K58</f>
+        <v>0</v>
+      </c>
+      <c r="N58" s="11" t="n">
+        <f aca="false">M58+J58</f>
+        <v>0</v>
+      </c>
+      <c r="O58" s="15" t="e">
+        <f aca="false">N58/C58*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="15"/>
+      <c r="R58" s="14"/>
+      <c r="S58" s="14"/>
+      <c r="T58" s="14" t="n">
+        <f aca="false">S58+R58</f>
+        <v>0</v>
+      </c>
+      <c r="U58" s="11"/>
+      <c r="V58" s="11"/>
+      <c r="W58" s="11" t="n">
+        <f aca="false">V58+U58</f>
+        <v>0</v>
+      </c>
+      <c r="X58" s="11" t="n">
+        <f aca="false">W58+T58</f>
+        <v>0</v>
+      </c>
+      <c r="Y58" s="15" t="e">
+        <f aca="false">X58/C58*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="11"/>
+      <c r="B59" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11" t="n">
+        <f aca="false">I59+H59</f>
+        <v>0</v>
+      </c>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11" t="n">
+        <f aca="false">L59+K59</f>
+        <v>0</v>
+      </c>
+      <c r="N59" s="11" t="n">
+        <f aca="false">M59+J59</f>
+        <v>0</v>
+      </c>
+      <c r="O59" s="15" t="e">
+        <f aca="false">N59/C59*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="15"/>
+      <c r="R59" s="14"/>
+      <c r="S59" s="14"/>
+      <c r="T59" s="14" t="n">
+        <f aca="false">S59+R59</f>
+        <v>0</v>
+      </c>
+      <c r="U59" s="11"/>
+      <c r="V59" s="11"/>
+      <c r="W59" s="11" t="n">
+        <f aca="false">V59+U59</f>
+        <v>0</v>
+      </c>
+      <c r="X59" s="11" t="n">
+        <f aca="false">W59+T59</f>
+        <v>0</v>
+      </c>
+      <c r="Y59" s="15" t="e">
+        <f aca="false">X59/C59*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="11"/>
+      <c r="B60" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="13"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11" t="n">
+        <f aca="false">I60+H60</f>
+        <v>0</v>
+      </c>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11" t="n">
+        <f aca="false">L60+K60</f>
+        <v>0</v>
+      </c>
+      <c r="N60" s="11" t="n">
+        <f aca="false">M60+J60</f>
+        <v>0</v>
+      </c>
+      <c r="O60" s="15" t="e">
+        <f aca="false">N60/C60*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P60" s="15"/>
+      <c r="Q60" s="15"/>
+      <c r="R60" s="14"/>
+      <c r="S60" s="14"/>
+      <c r="T60" s="14" t="n">
+        <f aca="false">S60+R60</f>
+        <v>0</v>
+      </c>
+      <c r="U60" s="11"/>
+      <c r="V60" s="11"/>
+      <c r="W60" s="11" t="n">
+        <f aca="false">V60+U60</f>
+        <v>0</v>
+      </c>
+      <c r="X60" s="11" t="n">
+        <f aca="false">W60+T60</f>
+        <v>0</v>
+      </c>
+      <c r="Y60" s="15" t="e">
+        <f aca="false">X60/C60*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="11"/>
+      <c r="B61" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="13"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11" t="n">
+        <f aca="false">I61+H61</f>
+        <v>0</v>
+      </c>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11" t="n">
+        <f aca="false">L61+K61</f>
+        <v>0</v>
+      </c>
+      <c r="N61" s="11" t="n">
+        <f aca="false">M61+J61</f>
+        <v>0</v>
+      </c>
+      <c r="O61" s="15" t="e">
+        <f aca="false">N61/C61*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="15"/>
+      <c r="R61" s="14"/>
+      <c r="S61" s="14"/>
+      <c r="T61" s="14" t="n">
+        <f aca="false">S61+R61</f>
+        <v>0</v>
+      </c>
+      <c r="U61" s="11"/>
+      <c r="V61" s="11"/>
+      <c r="W61" s="11" t="n">
+        <f aca="false">V61+U61</f>
+        <v>0</v>
+      </c>
+      <c r="X61" s="11" t="n">
+        <f aca="false">W61+T61</f>
+        <v>0</v>
+      </c>
+      <c r="Y61" s="15" t="e">
+        <f aca="false">X61/C61*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="11"/>
+      <c r="B62" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="13"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11" t="n">
+        <f aca="false">I62+H62</f>
+        <v>0</v>
+      </c>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11" t="n">
+        <f aca="false">L62+K62</f>
+        <v>0</v>
+      </c>
+      <c r="N62" s="11" t="n">
+        <f aca="false">M62+J62</f>
+        <v>0</v>
+      </c>
+      <c r="O62" s="15" t="e">
+        <f aca="false">N62/C62*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="14"/>
+      <c r="S62" s="14"/>
+      <c r="T62" s="14" t="n">
+        <f aca="false">S62+R62</f>
+        <v>0</v>
+      </c>
+      <c r="U62" s="11"/>
+      <c r="V62" s="11"/>
+      <c r="W62" s="11" t="n">
+        <f aca="false">V62+U62</f>
+        <v>0</v>
+      </c>
+      <c r="X62" s="11" t="n">
+        <f aca="false">W62+T62</f>
+        <v>0</v>
+      </c>
+      <c r="Y62" s="15" t="e">
+        <f aca="false">X62/C62*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="11"/>
+      <c r="B63" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11" t="n">
+        <f aca="false">I63+H63</f>
+        <v>0</v>
+      </c>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11" t="n">
+        <f aca="false">L63+K63</f>
+        <v>0</v>
+      </c>
+      <c r="N63" s="11" t="n">
+        <f aca="false">M63+J63</f>
+        <v>0</v>
+      </c>
+      <c r="O63" s="15" t="e">
+        <f aca="false">N63/C63*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="15"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="14"/>
+      <c r="T63" s="14" t="n">
+        <f aca="false">S63+R63</f>
+        <v>0</v>
+      </c>
+      <c r="U63" s="11"/>
+      <c r="V63" s="11"/>
+      <c r="W63" s="11" t="n">
+        <f aca="false">V63+U63</f>
+        <v>0</v>
+      </c>
+      <c r="X63" s="11" t="n">
+        <f aca="false">W63+T63</f>
+        <v>0</v>
+      </c>
+      <c r="Y63" s="15" t="e">
+        <f aca="false">X63/C63*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="11"/>
+      <c r="B64" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11" t="n">
+        <f aca="false">I64+H64</f>
+        <v>0</v>
+      </c>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11" t="n">
+        <f aca="false">L64+K64</f>
+        <v>0</v>
+      </c>
+      <c r="N64" s="11" t="n">
+        <f aca="false">M64+J64</f>
+        <v>0</v>
+      </c>
+      <c r="O64" s="15" t="e">
+        <f aca="false">N64/C64*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P64" s="15"/>
+      <c r="Q64" s="15"/>
+      <c r="R64" s="14"/>
+      <c r="S64" s="14"/>
+      <c r="T64" s="14" t="n">
+        <f aca="false">S64+R64</f>
+        <v>0</v>
+      </c>
+      <c r="U64" s="11"/>
+      <c r="V64" s="11"/>
+      <c r="W64" s="11" t="n">
+        <f aca="false">V64+U64</f>
+        <v>0</v>
+      </c>
+      <c r="X64" s="11" t="n">
+        <f aca="false">W64+T64</f>
+        <v>0</v>
+      </c>
+      <c r="Y64" s="15" t="e">
+        <f aca="false">X64/C64*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="11"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11" t="n">
+        <f aca="false">I65+H65</f>
+        <v>0</v>
+      </c>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11" t="n">
+        <f aca="false">L65+K65</f>
+        <v>0</v>
+      </c>
+      <c r="N65" s="11" t="n">
+        <f aca="false">M65+J65</f>
+        <v>0</v>
+      </c>
+      <c r="O65" s="15" t="e">
+        <f aca="false">N65/C65*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P65" s="15"/>
+      <c r="Q65" s="15"/>
+      <c r="R65" s="14"/>
+      <c r="S65" s="14"/>
+      <c r="T65" s="14" t="n">
+        <f aca="false">S65+R65</f>
+        <v>0</v>
+      </c>
+      <c r="U65" s="11"/>
+      <c r="V65" s="11"/>
+      <c r="W65" s="11" t="n">
+        <f aca="false">V65+U65</f>
+        <v>0</v>
+      </c>
+      <c r="X65" s="11" t="n">
+        <f aca="false">W65+T65</f>
+        <v>0</v>
+      </c>
+      <c r="Y65" s="15" t="e">
+        <f aca="false">X65/C65*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="11"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11" t="n">
+        <f aca="false">I66+H66</f>
+        <v>0</v>
+      </c>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11" t="n">
+        <f aca="false">L66+K66</f>
+        <v>0</v>
+      </c>
+      <c r="N66" s="11" t="n">
+        <f aca="false">M66+J66</f>
+        <v>0</v>
+      </c>
+      <c r="O66" s="15" t="e">
+        <f aca="false">N66/C66*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="15"/>
+      <c r="R66" s="14"/>
+      <c r="S66" s="14"/>
+      <c r="T66" s="14" t="n">
+        <f aca="false">S66+R66</f>
+        <v>0</v>
+      </c>
+      <c r="U66" s="11"/>
+      <c r="V66" s="11"/>
+      <c r="W66" s="11" t="n">
+        <f aca="false">V66+U66</f>
+        <v>0</v>
+      </c>
+      <c r="X66" s="11" t="n">
+        <f aca="false">W66+T66</f>
+        <v>0</v>
+      </c>
+      <c r="Y66" s="15" t="e">
+        <f aca="false">X66/C66*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="11"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11" t="n">
+        <f aca="false">I67+H67</f>
+        <v>0</v>
+      </c>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11" t="n">
+        <f aca="false">L67+K67</f>
+        <v>0</v>
+      </c>
+      <c r="N67" s="11" t="n">
+        <f aca="false">M67+J67</f>
+        <v>0</v>
+      </c>
+      <c r="O67" s="15" t="e">
+        <f aca="false">N67/C67*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P67" s="15"/>
+      <c r="Q67" s="15"/>
+      <c r="R67" s="14"/>
+      <c r="S67" s="14"/>
+      <c r="T67" s="14" t="n">
+        <f aca="false">S67+R67</f>
+        <v>0</v>
+      </c>
+      <c r="U67" s="11"/>
+      <c r="V67" s="11"/>
+      <c r="W67" s="11" t="n">
+        <f aca="false">V67+U67</f>
+        <v>0</v>
+      </c>
+      <c r="X67" s="11" t="n">
+        <f aca="false">W67+T67</f>
+        <v>0</v>
+      </c>
+      <c r="Y67" s="15" t="e">
+        <f aca="false">X67/C67*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="11"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11" t="n">
+        <f aca="false">I68+H68</f>
+        <v>0</v>
+      </c>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11" t="n">
+        <f aca="false">L68+K68</f>
+        <v>0</v>
+      </c>
+      <c r="N68" s="11" t="n">
+        <f aca="false">M68+J68</f>
+        <v>0</v>
+      </c>
+      <c r="O68" s="15" t="e">
+        <f aca="false">N68/C68*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P68" s="15"/>
+      <c r="Q68" s="15"/>
+      <c r="R68" s="14"/>
+      <c r="S68" s="14"/>
+      <c r="T68" s="14" t="n">
+        <f aca="false">S68+R68</f>
+        <v>0</v>
+      </c>
+      <c r="U68" s="11"/>
+      <c r="V68" s="11"/>
+      <c r="W68" s="11" t="n">
+        <f aca="false">V68+U68</f>
+        <v>0</v>
+      </c>
+      <c r="X68" s="11" t="n">
+        <f aca="false">W68+T68</f>
+        <v>0</v>
+      </c>
+      <c r="Y68" s="15" t="e">
+        <f aca="false">X68/C68*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="17"/>
+      <c r="C69" s="18" t="n">
+        <f aca="false">SUM(C14:C68)</f>
+        <v>0</v>
+      </c>
+      <c r="D69" s="19" t="n">
+        <f aca="false">SUM(D14:D68)</f>
+        <v>0</v>
+      </c>
+      <c r="E69" s="18" t="n">
+        <f aca="false">SUM(E14:E68)</f>
+        <v>0</v>
+      </c>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18" t="n">
+        <f aca="false">SUM(J14:J68)</f>
+        <v>0</v>
+      </c>
+      <c r="K69" s="18" t="n">
+        <f aca="false">SUM(K14:K68)</f>
+        <v>0</v>
+      </c>
+      <c r="L69" s="18" t="n">
+        <f aca="false">SUM(L14:L68)</f>
+        <v>0</v>
+      </c>
+      <c r="M69" s="18" t="n">
+        <f aca="false">SUM(M14:M68)</f>
+        <v>0</v>
+      </c>
+      <c r="N69" s="18" t="n">
+        <f aca="false">SUM(N14:N68)</f>
+        <v>0</v>
+      </c>
+      <c r="O69" s="15" t="e">
+        <f aca="false">N69/C69*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="19"/>
+      <c r="S69" s="19"/>
+      <c r="T69" s="18" t="n">
+        <f aca="false">SUM(T14:T68)</f>
+        <v>0</v>
+      </c>
+      <c r="U69" s="18" t="n">
+        <f aca="false">SUM(U14:U68)</f>
+        <v>0</v>
+      </c>
+      <c r="V69" s="18" t="n">
+        <f aca="false">SUM(V14:V68)</f>
+        <v>0</v>
+      </c>
+      <c r="W69" s="18" t="n">
+        <f aca="false">SUM(W14:W68)</f>
+        <v>0</v>
+      </c>
+      <c r="X69" s="18" t="n">
+        <f aca="false">SUM(X14:X68)</f>
+        <v>0</v>
+      </c>
+      <c r="Y69" s="15" t="e">
+        <f aca="false">X69/C69*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="U71" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="V71" s="21"/>
+    </row>
+    <row r="72" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="U72" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="V72" s="21"/>
+    </row>
+    <row r="73" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="U73" s="20"/>
+      <c r="V73" s="21"/>
+    </row>
+    <row r="74" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="U74" s="20"/>
+      <c r="V74" s="21"/>
+    </row>
+    <row r="75" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="U75" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="V75" s="21"/>
+      <c r="W75" s="2"/>
+    </row>
+    <row r="76" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="U76" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="V76" s="21"/>
+    </row>
     <row r="1048293" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048294" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048295" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2534,7 +4173,7 @@
     <mergeCell ref="Q11:Q12"/>
     <mergeCell ref="X11:X12"/>
     <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A69:B69"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.5"/>
